--- a/back_end/target/classes/static/assets/excel-template/import-imei-all-template.xlsx
+++ b/back_end/target/classes/static/assets/excel-template/import-imei-all-template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="7">
   <si>
     <t/>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Danh sách IMEI</t>
+  </si>
+  <si>
+    <t>T3DmDFkpFM</t>
   </si>
 </sst>
 </file>
@@ -611,11 +614,11 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,7 +927,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -942,11 +945,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,9 +958,9 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -969,9 +972,9 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1000,10 +1003,12 @@
       <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="54">
-        <v>22345700000026</v>
-      </c>
-      <c r="D5" s="14"/>
+      <c r="C5" s="53">
+        <v>22345700000049</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1015,9 +1020,7 @@
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15">
-        <v>22345700000027</v>
-      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
